--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/124.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/124.xlsx
@@ -479,13 +479,13 @@
         <v>-8.019690660284098</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.61893427184476</v>
+        <v>-21.56996109005887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1458731631842058</v>
+        <v>0.08852511263529347</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.875082746310778</v>
+        <v>-8.825576662776397</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.098638752180179</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.77007791913543</v>
+        <v>-21.71792688288605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02505602548900362</v>
+        <v>-0.03195468358609159</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.312788288533156</v>
+        <v>-8.278491905361747</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.183889581566625</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.99557847186502</v>
+        <v>-21.95996205683954</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1217608507244523</v>
+        <v>-0.175750153555794</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.184681641599383</v>
+        <v>-8.154873366731803</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.262086791434861</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.0352723186175</v>
+        <v>-22.01340867990866</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1025861657924119</v>
+        <v>-0.1743812316330579</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.715420095492286</v>
+        <v>-7.682101513694261</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.314493148917791</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.00152839322205</v>
+        <v>-21.97483930473556</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2352835901742174</v>
+        <v>-0.3049959390895576</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.90789305327021</v>
+        <v>-6.907228148336309</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.333043492164331</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2531313536141</v>
+        <v>-22.22962500859797</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3579438834582465</v>
+        <v>-0.4138203429402175</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.271442139335222</v>
+        <v>-6.301509531566749</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.306468023776766</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.65854247003929</v>
+        <v>-22.6136173859392</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5344810324156783</v>
+        <v>-0.58301909259041</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.869834670252494</v>
+        <v>-5.893531686536431</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.213897271348756</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83644854091945</v>
+        <v>-22.82441180601311</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6886020848883052</v>
+        <v>-0.7285208259566658</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.569297640129498</v>
+        <v>-5.607211888382423</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.040644534139325</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.29026571433397</v>
+        <v>-23.29261243763009</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7841675021158917</v>
+        <v>-0.8283396791584683</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.319312941010403</v>
+        <v>-5.351536385270239</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.781371463624438</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.73697427176398</v>
+        <v>-23.73648048207043</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.040507910161976</v>
+        <v>-1.074173611447553</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.998305639135634</v>
+        <v>-5.046340131603073</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.430433671791914</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23300313046744</v>
+        <v>-24.22267754796452</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9788233105221104</v>
+        <v>-1.018033145594768</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.829341561815053</v>
+        <v>-4.876075578455894</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.98808513340227</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.86455037051491</v>
+        <v>-24.84553702280948</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9124159302488046</v>
+        <v>-0.9548280648192917</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.747993376556455</v>
+        <v>-4.773367322195744</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.478475626384617</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.44405902147095</v>
+        <v>-25.43140627169937</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8000029953578291</v>
+        <v>-0.8400879626596649</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.640503671580464</v>
+        <v>-4.665398494546794</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.924792776204779</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.0884496825578</v>
+        <v>-26.07909212341453</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7828914713236269</v>
+        <v>-0.8284276812820727</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.600140030887214</v>
+        <v>-4.617500894271629</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.350177673008404</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82415232489803</v>
+        <v>-26.81500010404316</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7019197395937815</v>
+        <v>-0.7517827206294471</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.50114741984592</v>
+        <v>-4.523861745749607</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.789733095253428</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.66380258673917</v>
+        <v>-27.64262096448826</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6162154492167625</v>
+        <v>-0.6610818652344409</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.544116901199236</v>
+        <v>-4.547734766280753</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.269730780877703</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.46003602309867</v>
+        <v>-28.45181760255539</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.49138932589069</v>
+        <v>-0.5274555295479216</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.724027464894839</v>
+        <v>-4.73068140324071</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.803650493154049</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.15924467368081</v>
+        <v>-29.1536760948594</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2087851729555384</v>
+        <v>-0.2484985757354885</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.910445296730305</v>
+        <v>-4.940346462728358</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.406150646356453</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60804083704301</v>
+        <v>-29.59742191412807</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03628634367017824</v>
+        <v>-0.0681968914905321</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.211906349151148</v>
+        <v>-5.241445728641049</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.084617947699424</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.23713624014672</v>
+        <v>-30.22556640539617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4234367500395682</v>
+        <v>0.3814010689978334</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.501995571599546</v>
+        <v>-5.517728395697279</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.834212491566842</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.75207333290797</v>
+        <v>-30.7408383951278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.434422348469526</v>
+        <v>0.3989428256363243</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.739923979784829</v>
+        <v>-5.775212831350221</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.648779657508323</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10777302751037</v>
+        <v>-31.10075730265634</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6959059917396051</v>
+        <v>0.6644403435441405</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.031773244705318</v>
+        <v>-6.067849226376283</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.52653459248828</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.32213886710055</v>
+        <v>-31.31518914383923</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9284027132957455</v>
+        <v>0.8886257534265255</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.22873666435272</v>
+        <v>-6.279675226899107</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.45749383322667</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58109489382044</v>
+        <v>-31.58953331967273</v>
       </c>
       <c r="F25" t="n">
-        <v>1.160630539474206</v>
+        <v>1.112767162247108</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.288460772238953</v>
+        <v>-6.333024069830882</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.428928853279414</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.46144378426299</v>
+        <v>-31.47085267797837</v>
       </c>
       <c r="F26" t="n">
-        <v>1.22051109558018</v>
+        <v>1.162586142220972</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.400614589765982</v>
+        <v>-6.446893928768199</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.439614656183458</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.52814450494832</v>
+        <v>-31.54850966305245</v>
       </c>
       <c r="F27" t="n">
-        <v>1.428474780678141</v>
+        <v>1.387196895700778</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.702867661299265</v>
+        <v>-6.753248877062823</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.482097626452357</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.38041582895418</v>
+        <v>-31.39104208537942</v>
       </c>
       <c r="F28" t="n">
-        <v>1.589396441702646</v>
+        <v>1.538428545115058</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.787794599584444</v>
+        <v>-6.86418533187999</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.546854580394072</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.18131835780937</v>
+        <v>-31.19868899920752</v>
       </c>
       <c r="F29" t="n">
-        <v>1.590657805474311</v>
+        <v>1.558463695255676</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.087226714155517</v>
+        <v>-7.145645457208284</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.635870902401012</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.0060572396442</v>
+        <v>-31.03589484855299</v>
       </c>
       <c r="F30" t="n">
-        <v>1.695585670852039</v>
+        <v>1.66441336306859</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.155296356763574</v>
+        <v>-7.196432460541796</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.749273497142835</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.7238075397069</v>
+        <v>-30.75453250336203</v>
       </c>
       <c r="F31" t="n">
-        <v>1.658145656265204</v>
+        <v>1.625355087208806</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.146046355771371</v>
+        <v>-7.19721959064737</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.882283234857653</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34606820214845</v>
+        <v>-30.36540177980367</v>
       </c>
       <c r="F32" t="n">
-        <v>1.601247394348048</v>
+        <v>1.572113802428102</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.217538303186268</v>
+        <v>-7.253829401159378</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.037518628180402</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.82371937497696</v>
+        <v>-29.84448054263731</v>
       </c>
       <c r="F33" t="n">
-        <v>1.602665206339454</v>
+        <v>1.558038351658254</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.518877130435438</v>
+        <v>-7.528669811189869</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.21687098927911</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.17221765340217</v>
+        <v>-29.21656094568509</v>
       </c>
       <c r="F34" t="n">
-        <v>1.612159657675003</v>
+        <v>1.57108711098605</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.476978341585977</v>
+        <v>-7.503418090722253</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.41621771821782</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.74215860885743</v>
+        <v>-28.78106777000778</v>
       </c>
       <c r="F35" t="n">
-        <v>1.643278186382916</v>
+        <v>1.59641216655667</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.55082190130386</v>
+        <v>-7.548294284753665</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.63269601168849</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.11034491793571</v>
+        <v>-28.14172500851101</v>
       </c>
       <c r="F36" t="n">
-        <v>1.516638241509218</v>
+        <v>1.480972936415074</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.491254241637368</v>
+        <v>-7.47231422903494</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.866629033502265</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.39911419946783</v>
+        <v>-27.46040278955147</v>
       </c>
       <c r="F37" t="n">
-        <v>1.64899343541034</v>
+        <v>1.603168774046746</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.429075852303944</v>
+        <v>-7.404611261941902</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.111944052222332</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.91704834437628</v>
+        <v>-26.95997138016436</v>
       </c>
       <c r="F38" t="n">
-        <v>1.500768525219212</v>
+        <v>1.461485355043551</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.38252272891718</v>
+        <v>-7.366408562283828</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.358719131210631</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16641956407136</v>
+        <v>-26.21556386109759</v>
       </c>
       <c r="F39" t="n">
-        <v>1.547795882272067</v>
+        <v>1.510350978678366</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.386223707115435</v>
+        <v>-7.376054572832252</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.605045203539953</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.49820966152889</v>
+        <v>-25.55386611570185</v>
       </c>
       <c r="F40" t="n">
-        <v>1.617307781905864</v>
+        <v>1.573032935719082</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.114688265726978</v>
+        <v>-7.085134219216478</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.844776102073222</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.97542815724968</v>
+        <v>-25.02308619618837</v>
       </c>
       <c r="F41" t="n">
-        <v>1.617547343242343</v>
+        <v>1.572661371197197</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.154147440149849</v>
+        <v>-7.132117575207531</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.066814102955431</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.26499190239767</v>
+        <v>-24.30471997219822</v>
       </c>
       <c r="F42" t="n">
-        <v>1.654024223476395</v>
+        <v>1.599956696535183</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.873738451297942</v>
+        <v>-6.849792095663792</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.272404347506203</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.57027869362965</v>
+        <v>-23.60879428972721</v>
       </c>
       <c r="F43" t="n">
-        <v>1.592794301475152</v>
+        <v>1.54357666934592</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.902168026229052</v>
+        <v>-6.863090194341801</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.461241893616144</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.86140203196819</v>
+        <v>-22.90591643949145</v>
       </c>
       <c r="F44" t="n">
-        <v>1.694671426567926</v>
+        <v>1.654078002551931</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.77387070802747</v>
+        <v>-6.746052258954724</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.627379950759981</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.06319832584132</v>
+        <v>-22.10053078227708</v>
       </c>
       <c r="F45" t="n">
-        <v>1.723355229856116</v>
+        <v>1.693874518448619</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.701278734067517</v>
+        <v>-6.666160997742467</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.775451215854716</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.56119021173962</v>
+        <v>-21.59441590240718</v>
       </c>
       <c r="F46" t="n">
-        <v>1.731681208550472</v>
+        <v>1.699452875283769</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.54097797691511</v>
+        <v>-6.500800118482803</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.912453716191296</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.90514415828204</v>
+        <v>-20.93347595307581</v>
       </c>
       <c r="F47" t="n">
-        <v>1.805690994501831</v>
+        <v>1.774958697336403</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.533541797470533</v>
+        <v>-6.479840946044338</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.039434957496952</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.26481626190159</v>
+        <v>-20.30027622870733</v>
       </c>
       <c r="F48" t="n">
-        <v>1.838325115338488</v>
+        <v>1.805710550529298</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.498771180633033</v>
+        <v>-6.441046676555368</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.160825681537841</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.5384907347321</v>
+        <v>-19.56295532509415</v>
       </c>
       <c r="F49" t="n">
-        <v>1.979020954954566</v>
+        <v>1.958032448474901</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.193379366691191</v>
+        <v>-6.155714457788478</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.289804753102949</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.1505040387806</v>
+        <v>-19.17762335987138</v>
       </c>
       <c r="F50" t="n">
-        <v>1.979558745709927</v>
+        <v>1.958990693820816</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.18601163334275</v>
+        <v>-6.140138081910488</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.431751344573349</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.58288545252491</v>
+        <v>-18.59439906369649</v>
       </c>
       <c r="F51" t="n">
-        <v>1.95513326740282</v>
+        <v>1.931832260675103</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.21967244562146</v>
+        <v>-6.174390464020093</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.586059970248291</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.02006787101253</v>
+        <v>-18.04264530472394</v>
       </c>
       <c r="F52" t="n">
-        <v>1.984105522096158</v>
+        <v>1.963845477639662</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.258520494185966</v>
+        <v>-6.198165704413901</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.766380553300171</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.68457444179109</v>
+        <v>-17.68630026121511</v>
       </c>
       <c r="F53" t="n">
-        <v>2.06389411416421</v>
+        <v>2.051495592749713</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.158090515125799</v>
+        <v>-6.085767436543526</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.97720267056683</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.09315617010725</v>
+        <v>-17.08443907086355</v>
       </c>
       <c r="F54" t="n">
-        <v>2.121105272520849</v>
+        <v>2.10840852168747</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.132085887600678</v>
+        <v>-6.072596452044057</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.21098645080436</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.83844380134785</v>
+        <v>-16.83154541265863</v>
       </c>
       <c r="F55" t="n">
-        <v>2.04918798150853</v>
+        <v>2.046943927356616</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.374292176794512</v>
+        <v>-6.305601630314356</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.476196661655936</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.34266428199461</v>
+        <v>-16.32037041068148</v>
       </c>
       <c r="F56" t="n">
-        <v>2.095882886094434</v>
+        <v>2.086931114521113</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.223661875224862</v>
+        <v>-6.160627909689728</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.773373882262185</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.25743911429055</v>
+        <v>-16.22747439120323</v>
       </c>
       <c r="F57" t="n">
-        <v>2.09934430295621</v>
+        <v>2.107816951856574</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.374121061554169</v>
+        <v>-6.312138232495422</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.088157018334304</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.98077021569183</v>
+        <v>-15.9585350124611</v>
       </c>
       <c r="F58" t="n">
-        <v>1.99562402227461</v>
+        <v>1.986564692550216</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.573978773266786</v>
+        <v>-6.494595968768688</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.416178941494429</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.70875076262355</v>
+        <v>-15.67993006714309</v>
       </c>
       <c r="F59" t="n">
-        <v>2.060271360075826</v>
+        <v>2.048889752089648</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.353205890177508</v>
+        <v>-6.287253187542825</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.753277960161334</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41016444624045</v>
+        <v>-15.40005398003967</v>
       </c>
       <c r="F60" t="n">
-        <v>2.088661822952001</v>
+        <v>2.097652706580257</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.359317148761152</v>
+        <v>-6.301177079099799</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.083187007498992</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.28652635158304</v>
+        <v>-15.25171173368374</v>
       </c>
       <c r="F61" t="n">
-        <v>2.041287346411595</v>
+        <v>2.036725903004764</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.201221333705723</v>
+        <v>-6.14268525448815</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.390639857212561</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.21759135475954</v>
+        <v>-15.19859756308158</v>
       </c>
       <c r="F62" t="n">
-        <v>2.090402309396623</v>
+        <v>2.080110949941767</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.28210995231883</v>
+        <v>-6.230134920316658</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.672088444661846</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.10487041243595</v>
+        <v>-15.09108341307125</v>
       </c>
       <c r="F63" t="n">
-        <v>2.068196440207095</v>
+        <v>2.046318134477651</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.319608634988068</v>
+        <v>-6.280442800977212</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.913043131003819</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.21578731122565</v>
+        <v>-15.1694688601685</v>
       </c>
       <c r="F64" t="n">
-        <v>1.910203294295872</v>
+        <v>1.890818382068554</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.311082207012168</v>
+        <v>-6.273329295985851</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.0934022815921</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.20484082485063</v>
+        <v>-15.15924594680978</v>
       </c>
       <c r="F65" t="n">
-        <v>1.939913789026114</v>
+        <v>1.912946027148211</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.376585121015095</v>
+        <v>-6.352751212538885</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.21268645188879</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.18791997208423</v>
+        <v>-15.14500426980645</v>
       </c>
       <c r="F66" t="n">
-        <v>1.967214003370967</v>
+        <v>1.948420660974546</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.259713411861493</v>
+        <v>-6.242616554847891</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.26399037628925</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.03576918937897</v>
+        <v>-15.00062211901272</v>
       </c>
       <c r="F67" t="n">
-        <v>1.791517763594644</v>
+        <v>1.76228639153736</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.081675337795918</v>
+        <v>-6.058379220075069</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.23348545224723</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.14487715562791</v>
+        <v>-15.10421039650891</v>
       </c>
       <c r="F68" t="n">
-        <v>1.745116199420754</v>
+        <v>1.725389056712753</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.182838667886123</v>
+        <v>-6.168435653656191</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.12798464320976</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.03168197963823</v>
+        <v>-14.99069743507288</v>
       </c>
       <c r="F69" t="n">
-        <v>1.772245298525265</v>
+        <v>1.737665352955576</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.912153913692509</v>
+        <v>-5.904106608389568</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.953538297042346</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.08084583269193</v>
+        <v>-15.03684477088969</v>
       </c>
       <c r="F70" t="n">
-        <v>1.601521178732596</v>
+        <v>1.585817688676065</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.897765566483178</v>
+        <v>-5.89189875824288</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.709374572206405</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.13987570160306</v>
+        <v>-15.06756240103452</v>
       </c>
       <c r="F71" t="n">
-        <v>1.527853623261921</v>
+        <v>1.498720031341975</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.824068676971303</v>
+        <v>-5.823618888339547</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.406552448094661</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.24315108265977</v>
+        <v>-15.17872375016757</v>
       </c>
       <c r="F72" t="n">
-        <v>1.433173116277246</v>
+        <v>1.410947691060251</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.668510256479803</v>
+        <v>-5.671360547483214</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.063126083748321</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.35835075146489</v>
+        <v>-15.29986356231598</v>
       </c>
       <c r="F73" t="n">
-        <v>1.353844090854684</v>
+        <v>1.334424955579298</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.827471425750676</v>
+        <v>-5.829353693394438</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.688921237101653</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.51850483841129</v>
+        <v>-15.45060142203671</v>
       </c>
       <c r="F74" t="n">
-        <v>1.266775767561796</v>
+        <v>1.234288316931146</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.69615270130534</v>
+        <v>-5.715918956068277</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.294768261512093</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.71724785655825</v>
+        <v>-15.66383056753033</v>
       </c>
       <c r="F75" t="n">
-        <v>1.155712198566089</v>
+        <v>1.128788437749988</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.708732115973913</v>
+        <v>-5.737816817825189</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.90700400977872</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.74263158021127</v>
+        <v>-15.68579198637652</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9779136858369932</v>
+        <v>0.9518748352638041</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.814148882038332</v>
+        <v>-5.838295686954026</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.539053908897976</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.80775804068544</v>
+        <v>-15.75766038732017</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8271807151231384</v>
+        <v>0.7930994482538744</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.71794300491118</v>
+        <v>-5.756067480459382</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.196563933024438</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.97848216047811</v>
+        <v>-15.92090921561332</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8418819587719517</v>
+        <v>0.808406928754185</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.682351034920039</v>
+        <v>-5.729422393034696</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.903022317910587</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.09309025945234</v>
+        <v>-16.02333390947519</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5799191928289149</v>
+        <v>0.5413253726214883</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.712320647014228</v>
+        <v>-5.754282992952959</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.669446629906499</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.59114316699869</v>
+        <v>-16.52809942344982</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5584662306968922</v>
+        <v>0.5231529340971655</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.658526904457562</v>
+        <v>-5.701320381563669</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.491923369897627</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.11610027933369</v>
+        <v>-17.05557437432128</v>
       </c>
       <c r="F81" t="n">
-        <v>0.403958946681779</v>
+        <v>0.3651451211653413</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.702694192493272</v>
+        <v>-5.759152443792406</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.382641701061571</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.51315608302332</v>
+        <v>-17.47029415982107</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07985690346025327</v>
+        <v>0.03794344759019142</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.743849852298962</v>
+        <v>-5.795521765875386</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.346449863770112</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.012445909307</v>
+        <v>-17.97581258085321</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09697820550818942</v>
+        <v>0.04291067856697701</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.748929530433687</v>
+        <v>-5.807089156122507</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.37330663212753</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.86547493843946</v>
+        <v>-18.80794599463647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003681287466851465</v>
+        <v>-0.04031977433538307</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.754131433740085</v>
+        <v>-5.813488866111299</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.461154710624404</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.48806551790674</v>
+        <v>-19.45203842630445</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.1646374409472964</v>
+        <v>-0.2162751314756521</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.84606920787242</v>
+        <v>-5.901363875537228</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.612490480091741</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.18707127470391</v>
+        <v>-20.1435835586227</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2813771469154915</v>
+        <v>-0.3303307726739109</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.038715634456337</v>
+        <v>-6.110647592489256</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.817398077924148</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88452232731739</v>
+        <v>-20.86401294351069</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3944892097884357</v>
+        <v>-0.4434623915743228</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.387727167664794</v>
+        <v>-6.45846131901532</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.065153736828017</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.72334390249459</v>
+        <v>-21.69603879914287</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4965130050872169</v>
+        <v>-0.5545357385837635</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.643314668653374</v>
+        <v>-6.70980027303655</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.362072241308228</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.69854432422438</v>
+        <v>-22.68244482461163</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7162249736863746</v>
+        <v>-0.7740521469082446</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.650462396692803</v>
+        <v>-6.737765392315303</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.702601037619188</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.79292895535583</v>
+        <v>-23.76551140484617</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9923658595434648</v>
+        <v>-1.05100949691211</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.065240850275001</v>
+        <v>-7.143929415797997</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.072389324999873</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.04263733464916</v>
+        <v>-25.00981743155156</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9901658064533531</v>
+        <v>-1.038166075872724</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.415039513589031</v>
+        <v>-7.495463676549782</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.477074224312375</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25547771315908</v>
+        <v>-26.23028466077387</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.211500925332327</v>
+        <v>-1.265284889875258</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.738515763931592</v>
+        <v>-7.818162574800503</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.911635704844182</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54211031681479</v>
+        <v>-27.52172560268319</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.461436734382753</v>
+        <v>-1.525062269748784</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.107860676699548</v>
+        <v>-8.171011978399489</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.353961917015011</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.01206356645577</v>
+        <v>-29.01182644962273</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.758194562197623</v>
+        <v>-1.82055873379199</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.430794247279882</v>
+        <v>-8.497255406628723</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.802253577473868</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.61451623570045</v>
+        <v>-30.6068844959812</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.053505243979886</v>
+        <v>-2.107362543625821</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.770257550077254</v>
+        <v>-8.822926821054528</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.24751933901975</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.40699482384838</v>
+        <v>-32.41361209464275</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.100943277609562</v>
+        <v>-2.163556788554142</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.115690330259129</v>
+        <v>-9.191367267552106</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.66787954032879</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.09125280049371</v>
+        <v>-34.10217239733097</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.490298895483802</v>
+        <v>-2.54066544422676</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.547467860717591</v>
+        <v>-9.618842471967682</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.0488288487323</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.0561788833549</v>
+        <v>-36.080457691456</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.871230754526347</v>
+        <v>-2.926442309074417</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.969100701927202</v>
+        <v>-10.06191360828872</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.38417747558262</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.08467183349971</v>
+        <v>-38.12717197019381</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.15524294143917</v>
+        <v>-3.199288004303207</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.34450309420327</v>
+        <v>-10.43943294053815</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.65299330806181</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.2760347139055</v>
+        <v>-40.32165648148411</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.539738886487696</v>
+        <v>-3.572563678592163</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.49658543081239</v>
+        <v>-10.58036834149071</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.83774660590056</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.15012060467597</v>
+        <v>-42.2143670439141</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.985322972338325</v>
+        <v>-4.015370808542384</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.78131141272778</v>
+        <v>-10.86988066112881</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.93445350003013</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.35978792679148</v>
+        <v>-44.42327656996525</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.229778204690939</v>
+        <v>-4.242284284256507</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.94937102377798</v>
+        <v>-11.0252630773731</v>
       </c>
     </row>
   </sheetData>
